--- a/DataDictionary.xlsx
+++ b/DataDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjmac\OneDrive\Documents\Durham College\INFT2101-W2025\The BLOR Company\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60092FFE-388E-4884-AF59-045CE4898EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBFA6F8-755E-491F-818A-A39F3647A043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="21390" xr2:uid="{C04CA25A-CFCB-459B-B4A5-E2E8307171C0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="160">
   <si>
     <t>PERSONS</t>
   </si>
@@ -507,6 +507,15 @@
   </si>
   <si>
     <t>CONSTRAINTS</t>
+  </si>
+  <si>
+    <t>PK, NOT NULL</t>
+  </si>
+  <si>
+    <t>PK, FK, NOT NULL</t>
+  </si>
+  <si>
+    <t>FK, NOT NULL</t>
   </si>
 </sst>
 </file>
@@ -916,7 +925,7 @@
   <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -957,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>76</v>
@@ -1002,7 +1011,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>80</v>
@@ -1049,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>85</v>
@@ -1124,7 +1133,7 @@
         <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>91</v>
@@ -1141,7 +1150,7 @@
         <v>73</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>92</v>
@@ -1173,7 +1182,7 @@
         <v>73</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>94</v>
@@ -1205,7 +1214,7 @@
         <v>74</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>96</v>
@@ -1220,7 +1229,7 @@
         <v>73</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>97</v>
@@ -1237,7 +1246,7 @@
         <v>73</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>97</v>
@@ -1252,7 +1261,7 @@
         <v>73</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>98</v>
@@ -1269,7 +1278,7 @@
         <v>74</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>99</v>
@@ -1301,7 +1310,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>101</v>
@@ -1316,7 +1325,7 @@
         <v>74</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>102</v>
@@ -1348,7 +1357,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>104</v>
@@ -1363,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>105</v>
@@ -1408,7 +1417,7 @@
         <v>74</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>102</v>
@@ -1423,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>110</v>
@@ -1455,7 +1464,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>112</v>
@@ -1470,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>105</v>
@@ -1485,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>113</v>
@@ -1517,7 +1526,7 @@
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>115</v>
@@ -1549,7 +1558,7 @@
         <v>2</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>116</v>
@@ -1564,7 +1573,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>80</v>
@@ -1611,7 +1620,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>119</v>
@@ -1626,7 +1635,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>105</v>
@@ -1643,7 +1652,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>120</v>
@@ -1658,7 +1667,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>121</v>
@@ -1673,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>110</v>
@@ -1720,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>126</v>
@@ -1735,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>127</v>
@@ -1750,7 +1759,7 @@
         <v>2</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>121</v>
@@ -1812,7 +1821,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>131</v>
@@ -1827,7 +1836,7 @@
         <v>2</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>121</v>
@@ -1842,7 +1851,7 @@
         <v>2</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>127</v>
@@ -1863,7 +1872,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>134</v>
       </c>
@@ -1874,7 +1883,7 @@
         <v>2</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>135</v>
@@ -1889,7 +1898,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>136</v>
@@ -1906,7 +1915,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>127</v>
@@ -1921,7 +1930,7 @@
         <v>2</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>121</v>
@@ -1936,7 +1945,7 @@
         <v>55</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>137</v>
@@ -1968,7 +1977,7 @@
         <v>2</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>139</v>
@@ -1983,7 +1992,7 @@
         <v>2</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>135</v>
@@ -2000,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>140</v>
@@ -2015,7 +2024,7 @@
         <v>2</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>121</v>
@@ -2030,7 +2039,7 @@
         <v>2</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>127</v>
@@ -2047,7 +2056,7 @@
         <v>77</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>141</v>
@@ -2079,7 +2088,7 @@
         <v>77</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>143</v>
@@ -2109,7 +2118,7 @@
         <v>77</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>145</v>
@@ -2141,7 +2150,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>148</v>
@@ -2156,7 +2165,7 @@
         <v>2</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>121</v>
@@ -2203,7 +2212,7 @@
         <v>2</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>151</v>
@@ -2218,14 +2227,14 @@
         <v>77</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>152</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>